--- a/project/excel/ucs_containers.xlsx
+++ b/project/excel/ucs_containers.xlsx
@@ -543,12 +543,12 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>force</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>executable</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>force</t>
         </is>
       </c>
     </row>
@@ -594,73 +594,73 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>no_header</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>pod_prefix</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>requires</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>restart_policy</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>restart_sec</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>separator</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>start_timeout</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>stop_timeout</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>use_names</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>wants</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
           <t>executable</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>no_header</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>pod_prefix</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>requires</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>restart_policy</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>restart_sec</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>separator</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>start_timeout</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>stop_timeout</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>use_names</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>wants</t>
         </is>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="K2:K1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="J2:J1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"no,on-success,on-failure,on-abnormal,on-watchdog,on-abort,always"</formula1>
     </dataValidation>
   </dataValidations>
@@ -700,98 +700,98 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>force</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>path</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>pull</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>push</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>push_args</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>compress</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>dest</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>remove_signatures</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>sign_by</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>transport</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>state</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>tag</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>username</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>validate_certs</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
           <t>executable</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>force</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>password</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>path</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>pull</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>push</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>push_args</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>compress</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>dest</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>format</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>remove_signatures</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>sign_by</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>transport</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>state</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>tag</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>username</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>validate_certs</t>
         </is>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="R2:R1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="Q2:Q1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"absent,present,build"</formula1>
     </dataValidation>
   </dataValidations>
@@ -826,12 +826,12 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>src</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>executable</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>src</t>
         </is>
       </c>
     </row>
@@ -857,12 +857,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>input</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>executable</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>input</t>
         </is>
       </c>
     </row>
@@ -898,27 +898,27 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>registry</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>tlsverify</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>username</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>executable</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>password</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>registry</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>tlsverify</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>username</t>
         </is>
       </c>
     </row>
@@ -954,12 +954,12 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>ignore_docker_credentials</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>executable</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>ignore_docker_credentials</t>
         </is>
       </c>
     </row>
@@ -1000,63 +1000,63 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>gateway</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>internal</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>ip_range</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>ipv6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>macvlan</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>opt</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>recreate</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>state</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>subnet</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
           <t>executable</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>gateway</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>internal</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>ip_range</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>ipv6</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>macvlan</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>opt</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>recreate</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>state</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>subnet</t>
         </is>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="M2:M1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="L2:L1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"present,absent"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1101,71 +1101,71 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>kube_file</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>log_driver</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>log_level</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>network</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>quiet</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>recreate</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>seccomp_profile_root</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>state</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>tls_verify</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>username</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
           <t>executable</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>kube_file</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>log_driver</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>log_level</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>network</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>password</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>quiet</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>recreate</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>seccomp_profile_root</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>state</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>tls_verify</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>username</t>
         </is>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation sqref="H2:H1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="G2:G1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"debug,info,warn,error,fatal,panic"</formula1>
     </dataValidation>
-    <dataValidation sqref="N2:N1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="M2:M1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"absent,present,started,stopped,created"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1240,148 +1240,148 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
+          <t>generate_systemd</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>gidmap</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>hostname</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>infra</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>infra_command</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>infra_conmon_pidfile</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>infra_name</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>infra_image</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>ip</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>label_file</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>mac_address</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>network</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>network_alias</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>no_hosts</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>pid</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>pod_id_file</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>publish</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>recreate</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>share</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>state</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>subgidname</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>subuidname</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>uidmap</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>userns</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
           <t>executable</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>generate_systemd</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>gidmap</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>hostname</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>infra</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>infra_command</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>infra_conmon_pidfile</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>infra_name</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>infra_image</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>ip</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>label_file</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>mac_address</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>network</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>network_alias</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>no_hosts</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>pid</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>pod_id_file</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>publish</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>recreate</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>share</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>state</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>subgidname</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>subuidname</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>uidmap</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>userns</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>volume</t>
         </is>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AG2:AG1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AF2:AF1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"absent,present,started,stopped,created"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1487,33 +1487,33 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>force</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>format</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>multi_image_archive</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>executable</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>force</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>format</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>multi_image_archive</t>
         </is>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="D2:D1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"docker-archive,oci-archive,oci-dir,docker-dir"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1553,27 +1553,27 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>force</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>skip_existing</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>state</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
           <t>executable</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>force</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>skip_existing</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>state</t>
         </is>
       </c>
     </row>
@@ -1599,17 +1599,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>target_names</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>executable</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>image</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>target_names</t>
         </is>
       </c>
     </row>
@@ -1645,32 +1645,32 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>options</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>recreate</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>state</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
           <t>executable</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>options</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>recreate</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>state</t>
         </is>
       </c>
     </row>
@@ -3144,567 +3144,567 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>state</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>annotation</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>authfile</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>blkio_weight</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>blkio_weight_device</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>cap_add</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>cap_drop</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>cgroup_parent</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>cgroupns</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>cgroups</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>cidfile</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>cmd_args</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>conmon_pidfile</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>command</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>cpu_period</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>cpu_rt_period</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>cpu_rt_runtime</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>cpu_shares</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>cpus</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>cpuset_cpus</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>cpuset_mems</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>detach</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>debug</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>detach_keys</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>device</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>device_read_bps</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>device_read_iops</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>device_write_bps</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>device_write_iops</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>dns</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>dns_option</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>dns_search</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>entrypoint</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>env</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>env_file</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>env_host</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>etc_hosts</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>expose</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>force_restart</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>generate_systemd</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>gidmap</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>group_add</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>healthcheck</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>healthcheck_interval</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>healthcheck_retries</t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t>healthcheck_start_period</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>healthcheck_timeout</t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>hostname</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t>http_proxy</t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t>image_volume</t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t>image_strict</t>
+        </is>
+      </c>
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t>init</t>
+        </is>
+      </c>
+      <c r="BA1" t="inlineStr">
+        <is>
+          <t>init_path</t>
+        </is>
+      </c>
+      <c r="BB1" t="inlineStr">
+        <is>
+          <t>interactive</t>
+        </is>
+      </c>
+      <c r="BC1" t="inlineStr">
+        <is>
+          <t>ip</t>
+        </is>
+      </c>
+      <c r="BD1" t="inlineStr">
+        <is>
+          <t>ipc</t>
+        </is>
+      </c>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t>kernel_memory</t>
+        </is>
+      </c>
+      <c r="BF1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="BG1" t="inlineStr">
+        <is>
+          <t>label_file</t>
+        </is>
+      </c>
+      <c r="BH1" t="inlineStr">
+        <is>
+          <t>log_driver</t>
+        </is>
+      </c>
+      <c r="BI1" t="inlineStr">
+        <is>
+          <t>log_level</t>
+        </is>
+      </c>
+      <c r="BJ1" t="inlineStr">
+        <is>
+          <t>log_opt</t>
+        </is>
+      </c>
+      <c r="BK1" t="inlineStr">
+        <is>
+          <t>mac_address</t>
+        </is>
+      </c>
+      <c r="BL1" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="BM1" t="inlineStr">
+        <is>
+          <t>memory_reservation</t>
+        </is>
+      </c>
+      <c r="BN1" t="inlineStr">
+        <is>
+          <t>memory_swap</t>
+        </is>
+      </c>
+      <c r="BO1" t="inlineStr">
+        <is>
+          <t>memory_swappiness</t>
+        </is>
+      </c>
+      <c r="BP1" t="inlineStr">
+        <is>
+          <t>mount</t>
+        </is>
+      </c>
+      <c r="BQ1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="BR1" t="inlineStr">
+        <is>
+          <t>network</t>
+        </is>
+      </c>
+      <c r="BS1" t="inlineStr">
+        <is>
+          <t>network_aliases</t>
+        </is>
+      </c>
+      <c r="BT1" t="inlineStr">
+        <is>
+          <t>no_hosts</t>
+        </is>
+      </c>
+      <c r="BU1" t="inlineStr">
+        <is>
+          <t>oom_kill_disable</t>
+        </is>
+      </c>
+      <c r="BV1" t="inlineStr">
+        <is>
+          <t>oom_score_adj</t>
+        </is>
+      </c>
+      <c r="BW1" t="inlineStr">
+        <is>
+          <t>pid</t>
+        </is>
+      </c>
+      <c r="BX1" t="inlineStr">
+        <is>
+          <t>pids_limit</t>
+        </is>
+      </c>
+      <c r="BY1" t="inlineStr">
+        <is>
+          <t>pod</t>
+        </is>
+      </c>
+      <c r="BZ1" t="inlineStr">
+        <is>
+          <t>privileged</t>
+        </is>
+      </c>
+      <c r="CA1" t="inlineStr">
+        <is>
+          <t>publish</t>
+        </is>
+      </c>
+      <c r="CB1" t="inlineStr">
+        <is>
+          <t>publish_all</t>
+        </is>
+      </c>
+      <c r="CC1" t="inlineStr">
+        <is>
+          <t>read_only</t>
+        </is>
+      </c>
+      <c r="CD1" t="inlineStr">
+        <is>
+          <t>read_only_tmpfs</t>
+        </is>
+      </c>
+      <c r="CE1" t="inlineStr">
+        <is>
+          <t>recreate</t>
+        </is>
+      </c>
+      <c r="CF1" t="inlineStr">
+        <is>
+          <t>requires</t>
+        </is>
+      </c>
+      <c r="CG1" t="inlineStr">
+        <is>
+          <t>restart_policy</t>
+        </is>
+      </c>
+      <c r="CH1" t="inlineStr">
+        <is>
+          <t>rm</t>
+        </is>
+      </c>
+      <c r="CI1" t="inlineStr">
+        <is>
+          <t>rootfs</t>
+        </is>
+      </c>
+      <c r="CJ1" t="inlineStr">
+        <is>
+          <t>sdnotify</t>
+        </is>
+      </c>
+      <c r="CK1" t="inlineStr">
+        <is>
+          <t>secrets</t>
+        </is>
+      </c>
+      <c r="CL1" t="inlineStr">
+        <is>
+          <t>security_opt</t>
+        </is>
+      </c>
+      <c r="CM1" t="inlineStr">
+        <is>
+          <t>shm_size</t>
+        </is>
+      </c>
+      <c r="CN1" t="inlineStr">
+        <is>
+          <t>sig_proxy</t>
+        </is>
+      </c>
+      <c r="CO1" t="inlineStr">
+        <is>
+          <t>stop_signal</t>
+        </is>
+      </c>
+      <c r="CP1" t="inlineStr">
+        <is>
+          <t>stop_timeout</t>
+        </is>
+      </c>
+      <c r="CQ1" t="inlineStr">
+        <is>
+          <t>subgidname</t>
+        </is>
+      </c>
+      <c r="CR1" t="inlineStr">
+        <is>
+          <t>subuidname</t>
+        </is>
+      </c>
+      <c r="CS1" t="inlineStr">
+        <is>
+          <t>sysctl</t>
+        </is>
+      </c>
+      <c r="CT1" t="inlineStr">
+        <is>
+          <t>systemd</t>
+        </is>
+      </c>
+      <c r="CU1" t="inlineStr">
+        <is>
+          <t>timezone</t>
+        </is>
+      </c>
+      <c r="CV1" t="inlineStr">
+        <is>
+          <t>tmpfs</t>
+        </is>
+      </c>
+      <c r="CW1" t="inlineStr">
+        <is>
+          <t>tty</t>
+        </is>
+      </c>
+      <c r="CX1" t="inlineStr">
+        <is>
+          <t>uidmap</t>
+        </is>
+      </c>
+      <c r="CY1" t="inlineStr">
+        <is>
+          <t>ulimit</t>
+        </is>
+      </c>
+      <c r="CZ1" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="DA1" t="inlineStr">
+        <is>
+          <t>userns</t>
+        </is>
+      </c>
+      <c r="DB1" t="inlineStr">
+        <is>
+          <t>uts</t>
+        </is>
+      </c>
+      <c r="DC1" t="inlineStr">
+        <is>
+          <t>volume</t>
+        </is>
+      </c>
+      <c r="DD1" t="inlineStr">
+        <is>
+          <t>volumes_from</t>
+        </is>
+      </c>
+      <c r="DE1" t="inlineStr">
+        <is>
+          <t>workdir</t>
+        </is>
+      </c>
+      <c r="DF1" t="inlineStr">
+        <is>
           <t>executable</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>state</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>annotation</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>authfile</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>blkio_weight</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>blkio_weight_device</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>cap_add</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>cap_drop</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>cgroup_parent</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>cgroupns</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>cgroups</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>cidfile</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>cmd_args</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>conmon_pidfile</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>command</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>cpu_period</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>cpu_rt_period</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>cpu_rt_runtime</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>cpu_shares</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>cpus</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>cpuset_cpus</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>cpuset_mems</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>detach</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>debug</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>detach_keys</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>device</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>device_read_bps</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>device_read_iops</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>device_write_bps</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>device_write_iops</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>dns</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>dns_option</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>dns_search</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>entrypoint</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>env</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>env_file</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>env_host</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>etc_hosts</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>expose</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>force_restart</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>generate_systemd</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>gidmap</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>group_add</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>healthcheck</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>healthcheck_interval</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>healthcheck_retries</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>healthcheck_start_period</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>healthcheck_timeout</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>hostname</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>http_proxy</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>image_volume</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>image_strict</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>init</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>init_path</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>interactive</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>ip</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>ipc</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>kernel_memory</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>label_file</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>log_driver</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>log_level</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>log_opt</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>mac_address</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>memory</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>memory_reservation</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>memory_swap</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>memory_swappiness</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>mount</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>network</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>network_aliases</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>no_hosts</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>oom_kill_disable</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>oom_score_adj</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>pid</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>pids_limit</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>pod</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>privileged</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>publish</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>publish_all</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>read_only</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>read_only_tmpfs</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>recreate</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>requires</t>
-        </is>
-      </c>
-      <c r="CH1" t="inlineStr">
-        <is>
-          <t>restart_policy</t>
-        </is>
-      </c>
-      <c r="CI1" t="inlineStr">
-        <is>
-          <t>rm</t>
-        </is>
-      </c>
-      <c r="CJ1" t="inlineStr">
-        <is>
-          <t>rootfs</t>
-        </is>
-      </c>
-      <c r="CK1" t="inlineStr">
-        <is>
-          <t>sdnotify</t>
-        </is>
-      </c>
-      <c r="CL1" t="inlineStr">
-        <is>
-          <t>secrets</t>
-        </is>
-      </c>
-      <c r="CM1" t="inlineStr">
-        <is>
-          <t>security_opt</t>
-        </is>
-      </c>
-      <c r="CN1" t="inlineStr">
-        <is>
-          <t>shm_size</t>
-        </is>
-      </c>
-      <c r="CO1" t="inlineStr">
-        <is>
-          <t>sig_proxy</t>
-        </is>
-      </c>
-      <c r="CP1" t="inlineStr">
-        <is>
-          <t>stop_signal</t>
-        </is>
-      </c>
-      <c r="CQ1" t="inlineStr">
-        <is>
-          <t>stop_timeout</t>
-        </is>
-      </c>
-      <c r="CR1" t="inlineStr">
-        <is>
-          <t>subgidname</t>
-        </is>
-      </c>
-      <c r="CS1" t="inlineStr">
-        <is>
-          <t>subuidname</t>
-        </is>
-      </c>
-      <c r="CT1" t="inlineStr">
-        <is>
-          <t>sysctl</t>
-        </is>
-      </c>
-      <c r="CU1" t="inlineStr">
-        <is>
-          <t>systemd</t>
-        </is>
-      </c>
-      <c r="CV1" t="inlineStr">
-        <is>
-          <t>timezone</t>
-        </is>
-      </c>
-      <c r="CW1" t="inlineStr">
-        <is>
-          <t>tmpfs</t>
-        </is>
-      </c>
-      <c r="CX1" t="inlineStr">
-        <is>
-          <t>tty</t>
-        </is>
-      </c>
-      <c r="CY1" t="inlineStr">
-        <is>
-          <t>uidmap</t>
-        </is>
-      </c>
-      <c r="CZ1" t="inlineStr">
-        <is>
-          <t>ulimit</t>
-        </is>
-      </c>
-      <c r="DA1" t="inlineStr">
-        <is>
-          <t>user</t>
-        </is>
-      </c>
-      <c r="DB1" t="inlineStr">
-        <is>
-          <t>userns</t>
-        </is>
-      </c>
-      <c r="DC1" t="inlineStr">
-        <is>
-          <t>uts</t>
-        </is>
-      </c>
-      <c r="DD1" t="inlineStr">
-        <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="DE1" t="inlineStr">
-        <is>
-          <t>volumes_from</t>
-        </is>
-      </c>
-      <c r="DF1" t="inlineStr">
-        <is>
-          <t>workdir</t>
         </is>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="A2:A1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"absent,present,started,stopped,created"</formula1>
     </dataValidation>
-    <dataValidation sqref="AY2:AY1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AX2:AX1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"bind,tmpfs,ignore"</formula1>
     </dataValidation>
-    <dataValidation sqref="BI2:BI1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="BH2:BH1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"k8s-file,journald,json-file"</formula1>
     </dataValidation>
-    <dataValidation sqref="BJ2:BJ1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="BI2:BI1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"debug,info,warn,error,fatal,panic"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3718,7 +3718,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3737,6 +3737,11 @@
           <t>debug</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>executable</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
